--- a/bugs_list/测试单-按摩管理.xlsx
+++ b/bugs_list/测试单-按摩管理.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="784" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试说明" sheetId="10" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="245">
   <si>
     <t>编号</t>
   </si>
@@ -2042,11 +2042,19 @@
     <t>复检已修改bug。新增编号81~86.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -3180,22 +3188,7 @@
     <cellStyle name="常规 4" xfId="66"/>
     <cellStyle name="常规 6" xfId="7"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3229,11 +3222,16 @@
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3307,6 +3305,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3341,6 +3340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3516,7 +3516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -3831,7 +3831,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G23:G24">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3840,15 +3840,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A76" sqref="A76:XFD76"/>
+      <selection pane="bottomRight" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6502,6 +6502,12 @@
         <v>212</v>
       </c>
       <c r="K79" s="91"/>
+      <c r="L79" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="N79" s="77" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="80" spans="1:16" s="96" customFormat="1" ht="27" hidden="1">
       <c r="A80" s="96">
@@ -6628,6 +6634,9 @@
       <c r="H83" s="94" t="s">
         <v>78</v>
       </c>
+      <c r="L83" s="77" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="84" spans="1:16" ht="54">
       <c r="A84" s="77">
@@ -6748,9 +6757,13 @@
       <c r="I87" s="141"/>
       <c r="J87" s="79"/>
       <c r="K87" s="79"/>
-      <c r="L87" s="79"/>
+      <c r="L87" s="79" t="s">
+        <v>243</v>
+      </c>
       <c r="M87" s="79"/>
-      <c r="N87" s="79"/>
+      <c r="N87" s="79" t="s">
+        <v>244</v>
+      </c>
       <c r="O87" s="79"/>
       <c r="P87" s="79"/>
     </row>
@@ -6794,7 +6807,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I24 I26:I1048576">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6809,7 +6822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
@@ -7069,11 +7082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7337,17 +7350,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I3 I5:I1048576 H4">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I5)))</formula>
     </cfRule>
   </conditionalFormatting>
